--- a/Code/Results/Cases/Case_1_255/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_255/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.015834626474101</v>
+        <v>1.041228053287797</v>
       </c>
       <c r="D2">
-        <v>1.045977573074167</v>
+        <v>1.054017009620546</v>
       </c>
       <c r="E2">
-        <v>1.031132772145101</v>
+        <v>1.049874139649618</v>
       </c>
       <c r="F2">
-        <v>1.04441922460084</v>
+        <v>1.061564441082372</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.057920683213709</v>
+        <v>1.045683326077794</v>
       </c>
       <c r="J2">
-        <v>1.037551825806102</v>
+        <v>1.046310394696135</v>
       </c>
       <c r="K2">
-        <v>1.056831479542434</v>
+        <v>1.056761380854792</v>
       </c>
       <c r="L2">
-        <v>1.042174769533574</v>
+        <v>1.052629984699511</v>
       </c>
       <c r="M2">
-        <v>1.055292563000935</v>
+        <v>1.064288158697128</v>
       </c>
       <c r="N2">
-        <v>1.039025268407604</v>
+        <v>1.047796275470083</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.019999673805562</v>
+        <v>1.042115129792276</v>
       </c>
       <c r="D3">
-        <v>1.048915164013315</v>
+        <v>1.054651646024352</v>
       </c>
       <c r="E3">
-        <v>1.034522816284854</v>
+        <v>1.050643602167365</v>
       </c>
       <c r="F3">
-        <v>1.047984493317372</v>
+        <v>1.062371288255621</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.059254596918088</v>
+        <v>1.045903933372039</v>
       </c>
       <c r="J3">
-        <v>1.039959588058157</v>
+        <v>1.046843724536439</v>
       </c>
       <c r="K3">
-        <v>1.058958203217477</v>
+        <v>1.057209633772944</v>
       </c>
       <c r="L3">
-        <v>1.044732234083698</v>
+        <v>1.053211891331519</v>
       </c>
       <c r="M3">
-        <v>1.058038120784828</v>
+        <v>1.064909671141698</v>
       </c>
       <c r="N3">
-        <v>1.041436449958232</v>
+        <v>1.048330362699934</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.022643960108606</v>
+        <v>1.042689724578381</v>
       </c>
       <c r="D4">
-        <v>1.050782294854208</v>
+        <v>1.055062603806165</v>
       </c>
       <c r="E4">
-        <v>1.036680694419142</v>
+        <v>1.051142374891397</v>
       </c>
       <c r="F4">
-        <v>1.050253394845692</v>
+        <v>1.062894223798939</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.060091349111814</v>
+        <v>1.046045557285307</v>
       </c>
       <c r="J4">
-        <v>1.041485646912506</v>
+        <v>1.04718876797049</v>
       </c>
       <c r="K4">
-        <v>1.060304148233375</v>
+        <v>1.057499298104323</v>
       </c>
       <c r="L4">
-        <v>1.046355689003447</v>
+        <v>1.053588639707767</v>
       </c>
       <c r="M4">
-        <v>1.059780901066607</v>
+        <v>1.065312025755028</v>
       </c>
       <c r="N4">
-        <v>1.042964675991195</v>
+        <v>1.048675896135239</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.023743854083783</v>
+        <v>1.042931425686584</v>
       </c>
       <c r="D5">
-        <v>1.051559381393213</v>
+        <v>1.055235441806334</v>
       </c>
       <c r="E5">
-        <v>1.037579575753961</v>
+        <v>1.051352267632462</v>
       </c>
       <c r="F5">
-        <v>1.051198396261285</v>
+        <v>1.063114267847946</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.060436928357754</v>
+        <v>1.046104826133479</v>
       </c>
       <c r="J5">
-        <v>1.042119766508164</v>
+        <v>1.047333809447053</v>
       </c>
       <c r="K5">
-        <v>1.060862925436994</v>
+        <v>1.057620979411313</v>
       </c>
       <c r="L5">
-        <v>1.047030880525329</v>
+        <v>1.053747075028565</v>
       </c>
       <c r="M5">
-        <v>1.060505695396043</v>
+        <v>1.06548122063962</v>
       </c>
       <c r="N5">
-        <v>1.043599696109413</v>
+        <v>1.048821143587334</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.023927852356604</v>
+        <v>1.042972016619228</v>
       </c>
       <c r="D6">
-        <v>1.051689402932655</v>
+        <v>1.055264466198301</v>
       </c>
       <c r="E6">
-        <v>1.037730023009792</v>
+        <v>1.051387521733859</v>
       </c>
       <c r="F6">
-        <v>1.051356555084498</v>
+        <v>1.063151225999077</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.060494593064492</v>
+        <v>1.046114761786365</v>
       </c>
       <c r="J6">
-        <v>1.042225807808405</v>
+        <v>1.047358161646701</v>
       </c>
       <c r="K6">
-        <v>1.060956337471442</v>
+        <v>1.057641404711713</v>
       </c>
       <c r="L6">
-        <v>1.047143825412624</v>
+        <v>1.053773679925841</v>
       </c>
       <c r="M6">
-        <v>1.060626936139534</v>
+        <v>1.065509631799011</v>
       </c>
       <c r="N6">
-        <v>1.043705888000464</v>
+        <v>1.048845530369899</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.022658702662759</v>
+        <v>1.042692953646394</v>
       </c>
       <c r="D7">
-        <v>1.050792708916475</v>
+        <v>1.055064912997912</v>
       </c>
       <c r="E7">
-        <v>1.036692737557882</v>
+        <v>1.051145178670678</v>
       </c>
       <c r="F7">
-        <v>1.050266056406917</v>
+        <v>1.062897163247166</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.060095990925881</v>
+        <v>1.046046350299882</v>
       </c>
       <c r="J7">
-        <v>1.041494148997814</v>
+        <v>1.047190706081422</v>
       </c>
       <c r="K7">
-        <v>1.060311642156099</v>
+        <v>1.057500924385285</v>
       </c>
       <c r="L7">
-        <v>1.04636473939608</v>
+        <v>1.05359075653235</v>
       </c>
       <c r="M7">
-        <v>1.059790616449112</v>
+        <v>1.065314286370477</v>
       </c>
       <c r="N7">
-        <v>1.04297319015044</v>
+        <v>1.048677836998511</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.017252979520415</v>
+        <v>1.041527720462788</v>
       </c>
       <c r="D8">
-        <v>1.046977449744196</v>
+        <v>1.05423142360221</v>
       </c>
       <c r="E8">
-        <v>1.032286005530447</v>
+        <v>1.050134000049754</v>
       </c>
       <c r="F8">
-        <v>1.045632170763189</v>
+        <v>1.061836941419662</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.05837702397531</v>
+        <v>1.04575811353695</v>
       </c>
       <c r="J8">
-        <v>1.038372278203661</v>
+        <v>1.046490647003174</v>
       </c>
       <c r="K8">
-        <v>1.057556570315851</v>
+        <v>1.056912948996223</v>
       </c>
       <c r="L8">
-        <v>1.043045705038576</v>
+        <v>1.052826597244129</v>
       </c>
       <c r="M8">
-        <v>1.056227564567819</v>
+        <v>1.064498160527629</v>
       </c>
       <c r="N8">
-        <v>1.039846885941675</v>
+        <v>1.047976783756074</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>1.007319958456686</v>
+        <v>1.0394790672118</v>
       </c>
       <c r="D9">
-        <v>1.039986609163024</v>
+        <v>1.052765129199632</v>
       </c>
       <c r="E9">
-        <v>1.024235162549177</v>
+        <v>1.048358983796992</v>
       </c>
       <c r="F9">
-        <v>1.037162500130905</v>
+        <v>1.059975300159806</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.055140091883027</v>
+        <v>1.045241632931594</v>
       </c>
       <c r="J9">
-        <v>1.032616851971533</v>
+        <v>1.045256673818058</v>
       </c>
       <c r="K9">
-        <v>1.052462613216401</v>
+        <v>1.055873969675356</v>
       </c>
       <c r="L9">
-        <v>1.036946908118788</v>
+        <v>1.051481765143126</v>
       </c>
       <c r="M9">
-        <v>1.049680101382215</v>
+        <v>1.06306160105592</v>
       </c>
       <c r="N9">
-        <v>1.034083286344141</v>
+        <v>1.046741058187496</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>1.000396585789391</v>
+        <v>1.038116501991059</v>
       </c>
       <c r="D10">
-        <v>1.035131437207536</v>
+        <v>1.051789334728377</v>
       </c>
       <c r="E10">
-        <v>1.01865801981346</v>
+        <v>1.047180322345313</v>
       </c>
       <c r="F10">
-        <v>1.031292953013457</v>
+        <v>1.058738759796873</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.052833699461045</v>
+        <v>1.044891598600996</v>
       </c>
       <c r="J10">
-        <v>1.028594477796027</v>
+        <v>1.044433842505318</v>
       </c>
       <c r="K10">
-        <v>1.048894088136643</v>
+        <v>1.055179452437771</v>
       </c>
       <c r="L10">
-        <v>1.032698375999647</v>
+        <v>1.050586444840766</v>
       </c>
       <c r="M10">
-        <v>1.045119290972307</v>
+        <v>1.062105035367841</v>
       </c>
       <c r="N10">
-        <v>1.030055199935932</v>
+        <v>1.045917058359912</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9973206348848231</v>
+        <v>1.037527274079533</v>
       </c>
       <c r="D11">
-        <v>1.032979476761675</v>
+        <v>1.051367239245551</v>
       </c>
       <c r="E11">
-        <v>1.016189000354738</v>
+        <v>1.046671081577274</v>
       </c>
       <c r="F11">
-        <v>1.028694025381087</v>
+        <v>1.058204428080404</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.051797722439735</v>
+        <v>1.044738684767538</v>
       </c>
       <c r="J11">
-        <v>1.026805304951723</v>
+        <v>1.044077519432564</v>
       </c>
       <c r="K11">
-        <v>1.047305142315873</v>
+        <v>1.054878293398368</v>
       </c>
       <c r="L11">
-        <v>1.030811940045468</v>
+        <v>1.050199071282427</v>
       </c>
       <c r="M11">
-        <v>1.043094369557846</v>
+        <v>1.061691121933991</v>
       </c>
       <c r="N11">
-        <v>1.028263486260969</v>
+        <v>1.045560229267524</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9961657579050047</v>
+        <v>1.037308525984114</v>
       </c>
       <c r="D12">
-        <v>1.032172371075333</v>
+        <v>1.051210520624138</v>
       </c>
       <c r="E12">
-        <v>1.015263383798612</v>
+        <v>1.046482098039618</v>
       </c>
       <c r="F12">
-        <v>1.027719645224666</v>
+        <v>1.058006120439089</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.051407121996419</v>
+        <v>1.044681684238565</v>
       </c>
       <c r="J12">
-        <v>1.026133280889824</v>
+        <v>1.043945161634722</v>
       </c>
       <c r="K12">
-        <v>1.046708108438608</v>
+        <v>1.054766366489955</v>
       </c>
       <c r="L12">
-        <v>1.03010388950572</v>
+        <v>1.050055230856532</v>
       </c>
       <c r="M12">
-        <v>1.042334375841292</v>
+        <v>1.061537420566036</v>
       </c>
       <c r="N12">
-        <v>1.02759050784782</v>
+        <v>1.045427683506427</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9964140510427169</v>
+        <v>1.03735544285818</v>
       </c>
       <c r="D13">
-        <v>1.032345854918304</v>
+        <v>1.051244134264648</v>
       </c>
       <c r="E13">
-        <v>1.015462323398145</v>
+        <v>1.046522627876233</v>
       </c>
       <c r="F13">
-        <v>1.027929068102715</v>
+        <v>1.058048650515644</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.051491172408363</v>
+        <v>1.044693920152037</v>
       </c>
       <c r="J13">
-        <v>1.026277774543078</v>
+        <v>1.04397355297246</v>
       </c>
       <c r="K13">
-        <v>1.046836487515193</v>
+        <v>1.054790378022523</v>
       </c>
       <c r="L13">
-        <v>1.030256106345006</v>
+        <v>1.050086082950769</v>
       </c>
       <c r="M13">
-        <v>1.042497757662819</v>
+        <v>1.061570387991818</v>
       </c>
       <c r="N13">
-        <v>1.027735206698634</v>
+        <v>1.045456115163121</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9972254275662705</v>
+        <v>1.037509189890804</v>
       </c>
       <c r="D14">
-        <v>1.032912921575731</v>
+        <v>1.051354283469555</v>
       </c>
       <c r="E14">
-        <v>1.016112664584392</v>
+        <v>1.046655456637273</v>
       </c>
       <c r="F14">
-        <v>1.028613669286711</v>
+        <v>1.058188032492076</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.051765554585866</v>
+        <v>1.044733977192419</v>
       </c>
       <c r="J14">
-        <v>1.026749909014322</v>
+        <v>1.044066578760949</v>
       </c>
       <c r="K14">
-        <v>1.04725593214328</v>
+        <v>1.054869042763271</v>
       </c>
       <c r="L14">
-        <v>1.030753564070093</v>
+        <v>1.0501871804138</v>
       </c>
       <c r="M14">
-        <v>1.043031710289925</v>
+        <v>1.061678416013888</v>
       </c>
       <c r="N14">
-        <v>1.028208011654983</v>
+        <v>1.045549273058901</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.997723690726707</v>
+        <v>1.037603934109533</v>
       </c>
       <c r="D15">
-        <v>1.033261270523822</v>
+        <v>1.051422158888229</v>
       </c>
       <c r="E15">
-        <v>1.016512221232985</v>
+        <v>1.046737319553973</v>
       </c>
       <c r="F15">
-        <v>1.029034266626028</v>
+        <v>1.058273932507863</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.051933837082901</v>
+        <v>1.044758630977203</v>
       </c>
       <c r="J15">
-        <v>1.027039810263807</v>
+        <v>1.044123894586358</v>
       </c>
       <c r="K15">
-        <v>1.047513453058164</v>
+        <v>1.054917502394129</v>
       </c>
       <c r="L15">
-        <v>1.031059081296533</v>
+        <v>1.050249476214604</v>
       </c>
       <c r="M15">
-        <v>1.043359646121647</v>
+        <v>1.061744981588708</v>
       </c>
       <c r="N15">
-        <v>1.028498324597494</v>
+        <v>1.045606670279356</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>1.000599030964656</v>
+        <v>1.038155623490229</v>
       </c>
       <c r="D16">
-        <v>1.035273183502897</v>
+        <v>1.051817357031198</v>
       </c>
       <c r="E16">
-        <v>1.018820708513278</v>
+        <v>1.04721414288296</v>
       </c>
       <c r="F16">
-        <v>1.031464192611842</v>
+        <v>1.058774244939851</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.052901652193853</v>
+        <v>1.044901718684012</v>
       </c>
       <c r="J16">
-        <v>1.028712192919132</v>
+        <v>1.044457489930442</v>
       </c>
       <c r="K16">
-        <v>1.048998597985386</v>
+        <v>1.055199430458288</v>
       </c>
       <c r="L16">
-        <v>1.032822560279658</v>
+        <v>1.050612160113982</v>
       </c>
       <c r="M16">
-        <v>1.045252596174275</v>
+        <v>1.062132511595175</v>
       </c>
       <c r="N16">
-        <v>1.030173082228015</v>
+        <v>1.045940739367092</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>1.002381338220497</v>
+        <v>1.038501891309157</v>
       </c>
       <c r="D17">
-        <v>1.036521697519082</v>
+        <v>1.052065370796917</v>
       </c>
       <c r="E17">
-        <v>1.020254016166064</v>
+        <v>1.047513544655675</v>
       </c>
       <c r="F17">
-        <v>1.032972783058486</v>
+        <v>1.059088373147571</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.053498622235339</v>
+        <v>1.044991113846083</v>
       </c>
       <c r="J17">
-        <v>1.02974831169223</v>
+        <v>1.04466673785241</v>
       </c>
       <c r="K17">
-        <v>1.049918301086072</v>
+        <v>1.055376162714163</v>
       </c>
       <c r="L17">
-        <v>1.03391600028291</v>
+        <v>1.050839745053889</v>
       </c>
       <c r="M17">
-        <v>1.046426366513161</v>
+        <v>1.062375676560635</v>
       </c>
       <c r="N17">
-        <v>1.031210672408615</v>
+        <v>1.04615028444511</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>1.003413436340568</v>
+        <v>1.038703937843012</v>
       </c>
       <c r="D18">
-        <v>1.037245167330859</v>
+        <v>1.052210074392505</v>
       </c>
       <c r="E18">
-        <v>1.021084849731437</v>
+        <v>1.047688289304769</v>
       </c>
       <c r="F18">
-        <v>1.033847210906576</v>
+        <v>1.05927170466924</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.053843239835626</v>
+        <v>1.045043126545121</v>
       </c>
       <c r="J18">
-        <v>1.030348105515847</v>
+        <v>1.044788785486377</v>
       </c>
       <c r="K18">
-        <v>1.050450545061077</v>
+        <v>1.055479206215574</v>
       </c>
       <c r="L18">
-        <v>1.034549292628557</v>
+        <v>1.050972520934732</v>
       </c>
       <c r="M18">
-        <v>1.047106199859906</v>
+        <v>1.062517538043401</v>
       </c>
       <c r="N18">
-        <v>1.031811318008259</v>
+        <v>1.046272505400716</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>1.003764102050074</v>
+        <v>1.038772843061317</v>
       </c>
       <c r="D19">
-        <v>1.037491052466195</v>
+        <v>1.052259421538892</v>
       </c>
       <c r="E19">
-        <v>1.021367273506002</v>
+        <v>1.047747891090973</v>
       </c>
       <c r="F19">
-        <v>1.034144445894484</v>
+        <v>1.059334233876315</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.053960143031411</v>
+        <v>1.045060839459145</v>
       </c>
       <c r="J19">
-        <v>1.030551856076256</v>
+        <v>1.044830400006168</v>
       </c>
       <c r="K19">
-        <v>1.050631321065557</v>
+        <v>1.055514334317944</v>
       </c>
       <c r="L19">
-        <v>1.034764476138907</v>
+        <v>1.051017799029628</v>
       </c>
       <c r="M19">
-        <v>1.047337199711065</v>
+        <v>1.062565913755034</v>
       </c>
       <c r="N19">
-        <v>1.032015357917834</v>
+        <v>1.0463141790179</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>1.002190892624945</v>
+        <v>1.03846473234611</v>
       </c>
       <c r="D20">
-        <v>1.036388239096674</v>
+        <v>1.052038756975491</v>
       </c>
       <c r="E20">
-        <v>1.020100775432049</v>
+        <v>1.047481410426883</v>
       </c>
       <c r="F20">
-        <v>1.032811498076757</v>
+        <v>1.059054659201028</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.053434945138072</v>
+        <v>1.044981536030582</v>
       </c>
       <c r="J20">
-        <v>1.029637619496358</v>
+        <v>1.044644287846549</v>
       </c>
       <c r="K20">
-        <v>1.049820062211793</v>
+        <v>1.055357205291628</v>
       </c>
       <c r="L20">
-        <v>1.033799151430308</v>
+        <v>1.050815324289012</v>
       </c>
       <c r="M20">
-        <v>1.046300931578042</v>
+        <v>1.062349584408196</v>
       </c>
       <c r="N20">
-        <v>1.031099823017129</v>
+        <v>1.046127802557665</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9969868428372538</v>
+        <v>1.037463911969809</v>
       </c>
       <c r="D21">
-        <v>1.032746151731836</v>
+        <v>1.051321845425444</v>
       </c>
       <c r="E21">
-        <v>1.015921393541035</v>
+        <v>1.046616337138779</v>
       </c>
       <c r="F21">
-        <v>1.028412323726804</v>
+        <v>1.058146983349962</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.051684917353394</v>
+        <v>1.044722186949026</v>
       </c>
       <c r="J21">
-        <v>1.026611085347411</v>
+        <v>1.044039185072885</v>
       </c>
       <c r="K21">
-        <v>1.04713260678829</v>
+        <v>1.054845879686995</v>
       </c>
       <c r="L21">
-        <v>1.030607280523664</v>
+        <v>1.050157408412219</v>
       </c>
       <c r="M21">
-        <v>1.042874693908368</v>
+        <v>1.061646603212601</v>
       </c>
       <c r="N21">
-        <v>1.028068990842542</v>
+        <v>1.045521840468657</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9936431761784337</v>
+        <v>1.036835336347949</v>
       </c>
       <c r="D22">
-        <v>1.030411092793366</v>
+        <v>1.050871479957535</v>
       </c>
       <c r="E22">
-        <v>1.013244188613554</v>
+        <v>1.046073422370452</v>
       </c>
       <c r="F22">
-        <v>1.025593968489423</v>
+        <v>1.057577258385075</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.050550989682417</v>
+        <v>1.044557958335087</v>
       </c>
       <c r="J22">
-        <v>1.024664934541224</v>
+        <v>1.043658713044686</v>
       </c>
       <c r="K22">
-        <v>1.045403250563941</v>
+        <v>1.05452402496513</v>
       </c>
       <c r="L22">
-        <v>1.02855776349159</v>
+        <v>1.049744025290675</v>
       </c>
       <c r="M22">
-        <v>1.040674901374163</v>
+        <v>1.061204869335924</v>
       </c>
       <c r="N22">
-        <v>1.026120076278983</v>
+        <v>1.045140828126538</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.995422721640685</v>
+        <v>1.037168491256012</v>
       </c>
       <c r="D23">
-        <v>1.031653339611869</v>
+        <v>1.051110190080724</v>
       </c>
       <c r="E23">
-        <v>1.014668249652174</v>
+        <v>1.046361137220061</v>
       </c>
       <c r="F23">
-        <v>1.027093141498184</v>
+        <v>1.057879188078607</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.051155358915964</v>
+        <v>1.044645129245003</v>
       </c>
       <c r="J23">
-        <v>1.025700835902674</v>
+        <v>1.04386040994524</v>
       </c>
       <c r="K23">
-        <v>1.04632386241446</v>
+        <v>1.0546946802993</v>
       </c>
       <c r="L23">
-        <v>1.02964840494174</v>
+        <v>1.049963141004784</v>
       </c>
       <c r="M23">
-        <v>1.041845487848715</v>
+        <v>1.061439015814011</v>
       </c>
       <c r="N23">
-        <v>1.027157448739187</v>
+        <v>1.045342811459825</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>1.00227696989959</v>
+        <v>1.038481522652372</v>
       </c>
       <c r="D24">
-        <v>1.036448557923144</v>
+        <v>1.052050782488245</v>
       </c>
       <c r="E24">
-        <v>1.020170034336196</v>
+        <v>1.047495930166149</v>
       </c>
       <c r="F24">
-        <v>1.032884392808454</v>
+        <v>1.059069892755442</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.053463729142168</v>
+        <v>1.044985864234861</v>
       </c>
       <c r="J24">
-        <v>1.029687650593911</v>
+        <v>1.044654432047686</v>
       </c>
       <c r="K24">
-        <v>1.049864465101535</v>
+        <v>1.055365771463043</v>
       </c>
       <c r="L24">
-        <v>1.033851964258387</v>
+        <v>1.050826358890693</v>
       </c>
       <c r="M24">
-        <v>1.046357625057718</v>
+        <v>1.062361374244064</v>
       </c>
       <c r="N24">
-        <v>1.031149925164579</v>
+        <v>1.046137961164732</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>1.009938890563786</v>
+        <v>1.040008134855839</v>
       </c>
       <c r="D25">
-        <v>1.041827098268425</v>
+        <v>1.053143903499695</v>
       </c>
       <c r="E25">
-        <v>1.026352125789414</v>
+        <v>1.048817050313768</v>
       </c>
       <c r="F25">
-        <v>1.039390010462113</v>
+        <v>1.060455784671124</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.056002413668275</v>
+        <v>1.045376166218609</v>
       </c>
       <c r="J25">
-        <v>1.034136339250564</v>
+        <v>1.04557572296159</v>
       </c>
       <c r="K25">
-        <v>1.05380903510789</v>
+        <v>1.056142905174845</v>
       </c>
       <c r="L25">
-        <v>1.038554682270499</v>
+        <v>1.051829224894127</v>
       </c>
       <c r="M25">
-        <v>1.051406141083065</v>
+        <v>1.063432791857172</v>
       </c>
       <c r="N25">
-        <v>1.035604931469396</v>
+        <v>1.047060560417407</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_255/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_255/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.041228053287797</v>
+        <v>1.0158346264741</v>
       </c>
       <c r="D2">
-        <v>1.054017009620546</v>
+        <v>1.045977573074167</v>
       </c>
       <c r="E2">
-        <v>1.049874139649618</v>
+        <v>1.0311327721451</v>
       </c>
       <c r="F2">
-        <v>1.061564441082372</v>
+        <v>1.04441922460084</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.045683326077794</v>
+        <v>1.057920683213709</v>
       </c>
       <c r="J2">
-        <v>1.046310394696135</v>
+        <v>1.037551825806101</v>
       </c>
       <c r="K2">
-        <v>1.056761380854792</v>
+        <v>1.056831479542434</v>
       </c>
       <c r="L2">
-        <v>1.052629984699511</v>
+        <v>1.042174769533573</v>
       </c>
       <c r="M2">
-        <v>1.064288158697128</v>
+        <v>1.055292563000934</v>
       </c>
       <c r="N2">
-        <v>1.047796275470083</v>
+        <v>1.039025268407603</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.042115129792276</v>
+        <v>1.019999673805561</v>
       </c>
       <c r="D3">
-        <v>1.054651646024352</v>
+        <v>1.048915164013314</v>
       </c>
       <c r="E3">
-        <v>1.050643602167365</v>
+        <v>1.034522816284853</v>
       </c>
       <c r="F3">
-        <v>1.062371288255621</v>
+        <v>1.047984493317372</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.045903933372039</v>
+        <v>1.059254596918088</v>
       </c>
       <c r="J3">
-        <v>1.046843724536439</v>
+        <v>1.039959588058157</v>
       </c>
       <c r="K3">
-        <v>1.057209633772944</v>
+        <v>1.058958203217476</v>
       </c>
       <c r="L3">
-        <v>1.053211891331519</v>
+        <v>1.044732234083697</v>
       </c>
       <c r="M3">
-        <v>1.064909671141698</v>
+        <v>1.058038120784828</v>
       </c>
       <c r="N3">
-        <v>1.048330362699934</v>
+        <v>1.041436449958231</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.042689724578381</v>
+        <v>1.022643960108606</v>
       </c>
       <c r="D4">
-        <v>1.055062603806165</v>
+        <v>1.050782294854208</v>
       </c>
       <c r="E4">
-        <v>1.051142374891397</v>
+        <v>1.036680694419141</v>
       </c>
       <c r="F4">
-        <v>1.062894223798939</v>
+        <v>1.050253394845692</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.046045557285307</v>
+        <v>1.060091349111814</v>
       </c>
       <c r="J4">
-        <v>1.04718876797049</v>
+        <v>1.041485646912505</v>
       </c>
       <c r="K4">
-        <v>1.057499298104323</v>
+        <v>1.060304148233375</v>
       </c>
       <c r="L4">
-        <v>1.053588639707767</v>
+        <v>1.046355689003447</v>
       </c>
       <c r="M4">
-        <v>1.065312025755028</v>
+        <v>1.059780901066607</v>
       </c>
       <c r="N4">
-        <v>1.048675896135239</v>
+        <v>1.042964675991194</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.042931425686584</v>
+        <v>1.023743854083782</v>
       </c>
       <c r="D5">
-        <v>1.055235441806334</v>
+        <v>1.051559381393212</v>
       </c>
       <c r="E5">
-        <v>1.051352267632462</v>
+        <v>1.03757957575396</v>
       </c>
       <c r="F5">
-        <v>1.063114267847946</v>
+        <v>1.051198396261285</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.046104826133479</v>
+        <v>1.060436928357754</v>
       </c>
       <c r="J5">
-        <v>1.047333809447053</v>
+        <v>1.042119766508163</v>
       </c>
       <c r="K5">
-        <v>1.057620979411313</v>
+        <v>1.060862925436994</v>
       </c>
       <c r="L5">
-        <v>1.053747075028565</v>
+        <v>1.047030880525328</v>
       </c>
       <c r="M5">
-        <v>1.06548122063962</v>
+        <v>1.060505695396042</v>
       </c>
       <c r="N5">
-        <v>1.048821143587334</v>
+        <v>1.043599696109412</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.042972016619228</v>
+        <v>1.023927852356604</v>
       </c>
       <c r="D6">
-        <v>1.055264466198301</v>
+        <v>1.051689402932654</v>
       </c>
       <c r="E6">
-        <v>1.051387521733859</v>
+        <v>1.037730023009792</v>
       </c>
       <c r="F6">
-        <v>1.063151225999077</v>
+        <v>1.051356555084497</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.046114761786365</v>
+        <v>1.060494593064491</v>
       </c>
       <c r="J6">
-        <v>1.047358161646701</v>
+        <v>1.042225807808405</v>
       </c>
       <c r="K6">
-        <v>1.057641404711713</v>
+        <v>1.060956337471442</v>
       </c>
       <c r="L6">
-        <v>1.053773679925841</v>
+        <v>1.047143825412623</v>
       </c>
       <c r="M6">
-        <v>1.065509631799011</v>
+        <v>1.060626936139533</v>
       </c>
       <c r="N6">
-        <v>1.048845530369899</v>
+        <v>1.043705888000464</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.042692953646394</v>
+        <v>1.022658702662758</v>
       </c>
       <c r="D7">
-        <v>1.055064912997912</v>
+        <v>1.050792708916475</v>
       </c>
       <c r="E7">
-        <v>1.051145178670678</v>
+        <v>1.036692737557882</v>
       </c>
       <c r="F7">
-        <v>1.062897163247166</v>
+        <v>1.050266056406917</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.046046350299882</v>
+        <v>1.060095990925881</v>
       </c>
       <c r="J7">
-        <v>1.047190706081422</v>
+        <v>1.041494148997814</v>
       </c>
       <c r="K7">
-        <v>1.057500924385285</v>
+        <v>1.060311642156099</v>
       </c>
       <c r="L7">
-        <v>1.05359075653235</v>
+        <v>1.046364739396079</v>
       </c>
       <c r="M7">
-        <v>1.065314286370477</v>
+        <v>1.059790616449112</v>
       </c>
       <c r="N7">
-        <v>1.048677836998511</v>
+        <v>1.042973190150439</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.041527720462788</v>
+        <v>1.017252979520415</v>
       </c>
       <c r="D8">
-        <v>1.05423142360221</v>
+        <v>1.046977449744196</v>
       </c>
       <c r="E8">
-        <v>1.050134000049754</v>
+        <v>1.032286005530447</v>
       </c>
       <c r="F8">
-        <v>1.061836941419662</v>
+        <v>1.045632170763189</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.04575811353695</v>
+        <v>1.05837702397531</v>
       </c>
       <c r="J8">
-        <v>1.046490647003174</v>
+        <v>1.038372278203661</v>
       </c>
       <c r="K8">
-        <v>1.056912948996223</v>
+        <v>1.057556570315851</v>
       </c>
       <c r="L8">
-        <v>1.052826597244129</v>
+        <v>1.043045705038576</v>
       </c>
       <c r="M8">
-        <v>1.064498160527629</v>
+        <v>1.056227564567819</v>
       </c>
       <c r="N8">
-        <v>1.047976783756074</v>
+        <v>1.039846885941675</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.0394790672118</v>
+        <v>1.007319958456685</v>
       </c>
       <c r="D9">
-        <v>1.052765129199632</v>
+        <v>1.039986609163023</v>
       </c>
       <c r="E9">
-        <v>1.048358983796992</v>
+        <v>1.024235162549176</v>
       </c>
       <c r="F9">
-        <v>1.059975300159806</v>
+        <v>1.037162500130905</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.045241632931594</v>
+        <v>1.055140091883026</v>
       </c>
       <c r="J9">
-        <v>1.045256673818058</v>
+        <v>1.032616851971532</v>
       </c>
       <c r="K9">
-        <v>1.055873969675356</v>
+        <v>1.052462613216401</v>
       </c>
       <c r="L9">
-        <v>1.051481765143126</v>
+        <v>1.036946908118787</v>
       </c>
       <c r="M9">
-        <v>1.06306160105592</v>
+        <v>1.049680101382215</v>
       </c>
       <c r="N9">
-        <v>1.046741058187496</v>
+        <v>1.03408328634414</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.038116501991059</v>
+        <v>1.000396585789392</v>
       </c>
       <c r="D10">
-        <v>1.051789334728377</v>
+        <v>1.035131437207536</v>
       </c>
       <c r="E10">
-        <v>1.047180322345313</v>
+        <v>1.01865801981346</v>
       </c>
       <c r="F10">
-        <v>1.058738759796873</v>
+        <v>1.031292953013456</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.044891598600996</v>
+        <v>1.052833699461045</v>
       </c>
       <c r="J10">
-        <v>1.044433842505318</v>
+        <v>1.028594477796027</v>
       </c>
       <c r="K10">
-        <v>1.055179452437771</v>
+        <v>1.048894088136643</v>
       </c>
       <c r="L10">
-        <v>1.050586444840766</v>
+        <v>1.032698375999647</v>
       </c>
       <c r="M10">
-        <v>1.062105035367841</v>
+        <v>1.045119290972307</v>
       </c>
       <c r="N10">
-        <v>1.045917058359912</v>
+        <v>1.030055199935933</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.037527274079533</v>
+        <v>0.9973206348848219</v>
       </c>
       <c r="D11">
-        <v>1.051367239245551</v>
+        <v>1.032979476761674</v>
       </c>
       <c r="E11">
-        <v>1.046671081577274</v>
+        <v>1.016189000354736</v>
       </c>
       <c r="F11">
-        <v>1.058204428080404</v>
+        <v>1.028694025381086</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.044738684767538</v>
+        <v>1.051797722439733</v>
       </c>
       <c r="J11">
-        <v>1.044077519432564</v>
+        <v>1.026805304951722</v>
       </c>
       <c r="K11">
-        <v>1.054878293398368</v>
+        <v>1.047305142315872</v>
       </c>
       <c r="L11">
-        <v>1.050199071282427</v>
+        <v>1.030811940045466</v>
       </c>
       <c r="M11">
-        <v>1.061691121933991</v>
+        <v>1.043094369557844</v>
       </c>
       <c r="N11">
-        <v>1.045560229267524</v>
+        <v>1.028263486260968</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.037308525984114</v>
+        <v>0.9961657579050042</v>
       </c>
       <c r="D12">
-        <v>1.051210520624138</v>
+        <v>1.032172371075333</v>
       </c>
       <c r="E12">
-        <v>1.046482098039618</v>
+        <v>1.015263383798611</v>
       </c>
       <c r="F12">
-        <v>1.058006120439089</v>
+        <v>1.027719645224666</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.044681684238565</v>
+        <v>1.051407121996419</v>
       </c>
       <c r="J12">
-        <v>1.043945161634722</v>
+        <v>1.026133280889823</v>
       </c>
       <c r="K12">
-        <v>1.054766366489955</v>
+        <v>1.046708108438607</v>
       </c>
       <c r="L12">
-        <v>1.050055230856532</v>
+        <v>1.030103889505719</v>
       </c>
       <c r="M12">
-        <v>1.061537420566036</v>
+        <v>1.042334375841292</v>
       </c>
       <c r="N12">
-        <v>1.045427683506427</v>
+        <v>1.027590507847819</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.03735544285818</v>
+        <v>0.9964140510427157</v>
       </c>
       <c r="D13">
-        <v>1.051244134264648</v>
+        <v>1.032345854918304</v>
       </c>
       <c r="E13">
-        <v>1.046522627876233</v>
+        <v>1.015462323398143</v>
       </c>
       <c r="F13">
-        <v>1.058048650515644</v>
+        <v>1.027929068102714</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.044693920152037</v>
+        <v>1.051491172408362</v>
       </c>
       <c r="J13">
-        <v>1.04397355297246</v>
+        <v>1.026277774543076</v>
       </c>
       <c r="K13">
-        <v>1.054790378022523</v>
+        <v>1.046836487515193</v>
       </c>
       <c r="L13">
-        <v>1.050086082950769</v>
+        <v>1.030256106345005</v>
       </c>
       <c r="M13">
-        <v>1.061570387991818</v>
+        <v>1.042497757662818</v>
       </c>
       <c r="N13">
-        <v>1.045456115163121</v>
+        <v>1.027735206698633</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.037509189890804</v>
+        <v>0.9972254275662691</v>
       </c>
       <c r="D14">
-        <v>1.051354283469555</v>
+        <v>1.03291292157573</v>
       </c>
       <c r="E14">
-        <v>1.046655456637273</v>
+        <v>1.016112664584391</v>
       </c>
       <c r="F14">
-        <v>1.058188032492076</v>
+        <v>1.028613669286709</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.044733977192419</v>
+        <v>1.051765554585865</v>
       </c>
       <c r="J14">
-        <v>1.044066578760949</v>
+        <v>1.026749909014321</v>
       </c>
       <c r="K14">
-        <v>1.054869042763271</v>
+        <v>1.047255932143279</v>
       </c>
       <c r="L14">
-        <v>1.0501871804138</v>
+        <v>1.030753564070092</v>
       </c>
       <c r="M14">
-        <v>1.061678416013888</v>
+        <v>1.043031710289924</v>
       </c>
       <c r="N14">
-        <v>1.045549273058901</v>
+        <v>1.028208011654982</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.037603934109533</v>
+        <v>0.9977236907267072</v>
       </c>
       <c r="D15">
-        <v>1.051422158888229</v>
+        <v>1.033261270523822</v>
       </c>
       <c r="E15">
-        <v>1.046737319553973</v>
+        <v>1.016512221232985</v>
       </c>
       <c r="F15">
-        <v>1.058273932507863</v>
+        <v>1.029034266626028</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.044758630977203</v>
+        <v>1.051933837082901</v>
       </c>
       <c r="J15">
-        <v>1.044123894586358</v>
+        <v>1.027039810263807</v>
       </c>
       <c r="K15">
-        <v>1.054917502394129</v>
+        <v>1.047513453058164</v>
       </c>
       <c r="L15">
-        <v>1.050249476214604</v>
+        <v>1.031059081296533</v>
       </c>
       <c r="M15">
-        <v>1.061744981588708</v>
+        <v>1.043359646121648</v>
       </c>
       <c r="N15">
-        <v>1.045606670279356</v>
+        <v>1.028498324597494</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.038155623490229</v>
+        <v>1.000599030964656</v>
       </c>
       <c r="D16">
-        <v>1.051817357031198</v>
+        <v>1.035273183502896</v>
       </c>
       <c r="E16">
-        <v>1.04721414288296</v>
+        <v>1.018820708513277</v>
       </c>
       <c r="F16">
-        <v>1.058774244939851</v>
+        <v>1.031464192611841</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.044901718684012</v>
+        <v>1.052901652193853</v>
       </c>
       <c r="J16">
-        <v>1.044457489930442</v>
+        <v>1.028712192919131</v>
       </c>
       <c r="K16">
-        <v>1.055199430458288</v>
+        <v>1.048998597985386</v>
       </c>
       <c r="L16">
-        <v>1.050612160113982</v>
+        <v>1.032822560279657</v>
       </c>
       <c r="M16">
-        <v>1.062132511595175</v>
+        <v>1.045252596174275</v>
       </c>
       <c r="N16">
-        <v>1.045940739367092</v>
+        <v>1.030173082228014</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.038501891309157</v>
+        <v>1.002381338220496</v>
       </c>
       <c r="D17">
-        <v>1.052065370796917</v>
+        <v>1.036521697519081</v>
       </c>
       <c r="E17">
-        <v>1.047513544655675</v>
+        <v>1.020254016166063</v>
       </c>
       <c r="F17">
-        <v>1.059088373147571</v>
+        <v>1.032972783058485</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.044991113846083</v>
+        <v>1.053498622235339</v>
       </c>
       <c r="J17">
-        <v>1.04466673785241</v>
+        <v>1.029748311692228</v>
       </c>
       <c r="K17">
-        <v>1.055376162714163</v>
+        <v>1.049918301086071</v>
       </c>
       <c r="L17">
-        <v>1.050839745053889</v>
+        <v>1.033916000282909</v>
       </c>
       <c r="M17">
-        <v>1.062375676560635</v>
+        <v>1.04642636651316</v>
       </c>
       <c r="N17">
-        <v>1.04615028444511</v>
+        <v>1.031210672408613</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.038703937843012</v>
+        <v>1.003413436340567</v>
       </c>
       <c r="D18">
-        <v>1.052210074392505</v>
+        <v>1.037245167330858</v>
       </c>
       <c r="E18">
-        <v>1.047688289304769</v>
+        <v>1.021084849731437</v>
       </c>
       <c r="F18">
-        <v>1.05927170466924</v>
+        <v>1.033847210906575</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.045043126545121</v>
+        <v>1.053843239835625</v>
       </c>
       <c r="J18">
-        <v>1.044788785486377</v>
+        <v>1.030348105515846</v>
       </c>
       <c r="K18">
-        <v>1.055479206215574</v>
+        <v>1.050450545061077</v>
       </c>
       <c r="L18">
-        <v>1.050972520934732</v>
+        <v>1.034549292628557</v>
       </c>
       <c r="M18">
-        <v>1.062517538043401</v>
+        <v>1.047106199859906</v>
       </c>
       <c r="N18">
-        <v>1.046272505400716</v>
+        <v>1.031811318008258</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.038772843061317</v>
+        <v>1.003764102050074</v>
       </c>
       <c r="D19">
-        <v>1.052259421538892</v>
+        <v>1.037491052466195</v>
       </c>
       <c r="E19">
-        <v>1.047747891090973</v>
+        <v>1.021367273506002</v>
       </c>
       <c r="F19">
-        <v>1.059334233876315</v>
+        <v>1.034144445894484</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.045060839459145</v>
+        <v>1.05396014303141</v>
       </c>
       <c r="J19">
-        <v>1.044830400006168</v>
+        <v>1.030551856076255</v>
       </c>
       <c r="K19">
-        <v>1.055514334317944</v>
+        <v>1.050631321065557</v>
       </c>
       <c r="L19">
-        <v>1.051017799029628</v>
+        <v>1.034764476138907</v>
       </c>
       <c r="M19">
-        <v>1.062565913755034</v>
+        <v>1.047337199711065</v>
       </c>
       <c r="N19">
-        <v>1.0463141790179</v>
+        <v>1.032015357917833</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.03846473234611</v>
+        <v>1.002190892624944</v>
       </c>
       <c r="D20">
-        <v>1.052038756975491</v>
+        <v>1.036388239096674</v>
       </c>
       <c r="E20">
-        <v>1.047481410426883</v>
+        <v>1.020100775432049</v>
       </c>
       <c r="F20">
-        <v>1.059054659201028</v>
+        <v>1.032811498076756</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.044981536030582</v>
+        <v>1.053434945138071</v>
       </c>
       <c r="J20">
-        <v>1.044644287846549</v>
+        <v>1.029637619496358</v>
       </c>
       <c r="K20">
-        <v>1.055357205291628</v>
+        <v>1.049820062211793</v>
       </c>
       <c r="L20">
-        <v>1.050815324289012</v>
+        <v>1.033799151430307</v>
       </c>
       <c r="M20">
-        <v>1.062349584408196</v>
+        <v>1.046300931578042</v>
       </c>
       <c r="N20">
-        <v>1.046127802557665</v>
+        <v>1.031099823017128</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.037463911969809</v>
+        <v>0.9969868428372534</v>
       </c>
       <c r="D21">
-        <v>1.051321845425444</v>
+        <v>1.032746151731836</v>
       </c>
       <c r="E21">
-        <v>1.046616337138779</v>
+        <v>1.015921393541035</v>
       </c>
       <c r="F21">
-        <v>1.058146983349962</v>
+        <v>1.028412323726804</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.044722186949026</v>
+        <v>1.051684917353394</v>
       </c>
       <c r="J21">
-        <v>1.044039185072885</v>
+        <v>1.026611085347411</v>
       </c>
       <c r="K21">
-        <v>1.054845879686995</v>
+        <v>1.04713260678829</v>
       </c>
       <c r="L21">
-        <v>1.050157408412219</v>
+        <v>1.030607280523664</v>
       </c>
       <c r="M21">
-        <v>1.061646603212601</v>
+        <v>1.042874693908368</v>
       </c>
       <c r="N21">
-        <v>1.045521840468657</v>
+        <v>1.028068990842541</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.036835336347949</v>
+        <v>0.9936431761784337</v>
       </c>
       <c r="D22">
-        <v>1.050871479957535</v>
+        <v>1.030411092793366</v>
       </c>
       <c r="E22">
-        <v>1.046073422370452</v>
+        <v>1.013244188613554</v>
       </c>
       <c r="F22">
-        <v>1.057577258385075</v>
+        <v>1.025593968489424</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.044557958335087</v>
+        <v>1.050550989682417</v>
       </c>
       <c r="J22">
-        <v>1.043658713044686</v>
+        <v>1.024664934541224</v>
       </c>
       <c r="K22">
-        <v>1.05452402496513</v>
+        <v>1.045403250563941</v>
       </c>
       <c r="L22">
-        <v>1.049744025290675</v>
+        <v>1.02855776349159</v>
       </c>
       <c r="M22">
-        <v>1.061204869335924</v>
+        <v>1.040674901374164</v>
       </c>
       <c r="N22">
-        <v>1.045140828126538</v>
+        <v>1.026120076278983</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.037168491256012</v>
+        <v>0.995422721640684</v>
       </c>
       <c r="D23">
-        <v>1.051110190080724</v>
+        <v>1.031653339611868</v>
       </c>
       <c r="E23">
-        <v>1.046361137220061</v>
+        <v>1.014668249652174</v>
       </c>
       <c r="F23">
-        <v>1.057879188078607</v>
+        <v>1.027093141498183</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.044645129245003</v>
+        <v>1.051155358915964</v>
       </c>
       <c r="J23">
-        <v>1.04386040994524</v>
+        <v>1.025700835902674</v>
       </c>
       <c r="K23">
-        <v>1.0546946802993</v>
+        <v>1.046323862414459</v>
       </c>
       <c r="L23">
-        <v>1.049963141004784</v>
+        <v>1.029648404941739</v>
       </c>
       <c r="M23">
-        <v>1.061439015814011</v>
+        <v>1.041845487848714</v>
       </c>
       <c r="N23">
-        <v>1.045342811459825</v>
+        <v>1.027157448739186</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.038481522652372</v>
+        <v>1.002276969899589</v>
       </c>
       <c r="D24">
-        <v>1.052050782488245</v>
+        <v>1.036448557923143</v>
       </c>
       <c r="E24">
-        <v>1.047495930166149</v>
+        <v>1.020170034336195</v>
       </c>
       <c r="F24">
-        <v>1.059069892755442</v>
+        <v>1.032884392808454</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.044985864234861</v>
+        <v>1.053463729142168</v>
       </c>
       <c r="J24">
-        <v>1.044654432047686</v>
+        <v>1.02968765059391</v>
       </c>
       <c r="K24">
-        <v>1.055365771463043</v>
+        <v>1.049864465101535</v>
       </c>
       <c r="L24">
-        <v>1.050826358890693</v>
+        <v>1.033851964258386</v>
       </c>
       <c r="M24">
-        <v>1.062361374244064</v>
+        <v>1.046357625057718</v>
       </c>
       <c r="N24">
-        <v>1.046137961164732</v>
+        <v>1.031149925164578</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.040008134855839</v>
+        <v>1.009938890563785</v>
       </c>
       <c r="D25">
-        <v>1.053143903499695</v>
+        <v>1.041827098268425</v>
       </c>
       <c r="E25">
-        <v>1.048817050313768</v>
+        <v>1.026352125789414</v>
       </c>
       <c r="F25">
-        <v>1.060455784671124</v>
+        <v>1.039390010462113</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.045376166218609</v>
+        <v>1.056002413668274</v>
       </c>
       <c r="J25">
-        <v>1.04557572296159</v>
+        <v>1.034136339250564</v>
       </c>
       <c r="K25">
-        <v>1.056142905174845</v>
+        <v>1.05380903510789</v>
       </c>
       <c r="L25">
-        <v>1.051829224894127</v>
+        <v>1.038554682270498</v>
       </c>
       <c r="M25">
-        <v>1.063432791857172</v>
+        <v>1.051406141083065</v>
       </c>
       <c r="N25">
-        <v>1.047060560417407</v>
+        <v>1.035604931469395</v>
       </c>
     </row>
   </sheetData>
